--- a/web/archivos_generados/debitoAutomaticoExcel3.xlsx
+++ b/web/archivos_generados/debitoAutomaticoExcel3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>FAMILIA</t>
   </si>
@@ -32,111 +32,84 @@
     <t>MONTO SERVICIO ENVIADO</t>
   </si>
   <si>
+    <t>BASCIANO</t>
+  </si>
+  <si>
+    <t>sfsd SDFSDF</t>
+  </si>
+  <si>
+    <t>(Matrícula) Mayo Primario</t>
+  </si>
+  <si>
+    <t>sdfs sfsdf</t>
+  </si>
+  <si>
+    <t>ADSAD ASDASD</t>
+  </si>
+  <si>
     <t>CRESPO</t>
   </si>
   <si>
-    <t>asd asddddd</t>
-  </si>
-  <si>
-    <t>(Seguro) dfgfg</t>
-  </si>
-  <si>
-    <t>IBAÑEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibañez Sasha mriel  </t>
-  </si>
-  <si>
-    <t>LEUZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leuze Aaron </t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>LUNA AGUSTINA LUCÍA LUNA AGUSTINA LUCÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luna Francisco alejandro </t>
-  </si>
-  <si>
-    <t>PERAL</t>
-  </si>
-  <si>
-    <t>Peral barcia  matias ezequiel</t>
-  </si>
-  <si>
-    <t>Peral BARCIA Gonzalo</t>
-  </si>
-  <si>
-    <t>(Matrícula) hjkhjk</t>
-  </si>
-  <si>
-    <t>CHAGALLO SPINELLI</t>
-  </si>
-  <si>
-    <t>CHAGALLO SPINELLI LAUTARO CHAGALLO SPINELLI LAUTARO</t>
-  </si>
-  <si>
-    <t>MALVINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malvino franco  </t>
-  </si>
-  <si>
-    <t>MANQUELEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manquelef Nazarena </t>
-  </si>
-  <si>
-    <t>MARTINEZ ZUÑIGA</t>
-  </si>
-  <si>
-    <t>MARTINEZ ZUÑIGA ANA PAULA</t>
+    <t>asdad asdsda</t>
+  </si>
+  <si>
+    <t>DUMON</t>
+  </si>
+  <si>
+    <t>Dumon Manuel c 7º</t>
   </si>
   <si>
     <t>PRECIADO</t>
   </si>
   <si>
-    <t>Preciado LUCIANA JOSEFINA</t>
-  </si>
-  <si>
-    <t>VALLES CABEZAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valles cabezas Lorenzo </t>
+    <t>Preciado Fausto Matias</t>
+  </si>
+  <si>
+    <t>LINARES CORSANO</t>
+  </si>
+  <si>
+    <t>Linares corsano Tiago s 7º</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>Ruiz Paloma c 6º</t>
+  </si>
+  <si>
+    <t>CAMINOS TROBIANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caminos trobiani Santino </t>
   </si>
   <si>
     <t>GENTILE</t>
   </si>
   <si>
-    <t>Gentile, Emilia Gentile, Emilia</t>
-  </si>
-  <si>
-    <t>CUELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuello Andres </t>
-  </si>
-  <si>
-    <t>CUELLO PABLO CUELLO PABLO</t>
-  </si>
-  <si>
-    <t>SCHERÑUK</t>
-  </si>
-  <si>
-    <t>SCHERÑUK MÁXIMO SCHERÑUK MÁXIMO</t>
-  </si>
-  <si>
-    <t>Scherñuk Octavio</t>
+    <t xml:space="preserve">Gentile Josefina   </t>
+  </si>
+  <si>
+    <t>CUOTA CONVENIO PAGO - NRO CONVENIO: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENTILE SOFIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gentile Bautista </t>
+  </si>
+  <si>
+    <t>GENTILE AGUANTAME</t>
+  </si>
+  <si>
+    <t>CUOTA CONVENIO PAGO - NRO CONVENIO: 3</t>
   </si>
   <si>
     <t>OTERO FUENTES</t>
   </si>
   <si>
+    <t xml:space="preserve">Otero fuentes Maria guadalupe </t>
+  </si>
+  <si>
     <t xml:space="preserve">Otero fuentes Candela </t>
   </si>
   <si>
@@ -158,16 +131,61 @@
     <t xml:space="preserve">Mitoire Mateo </t>
   </si>
   <si>
+    <t>SUAREZ ANDRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suarez andre Morena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUAREZ ANDRE  SEBASTIAN </t>
+  </si>
+  <si>
+    <t>INCHENTRONN CHEBEIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inchentronn chebeir Nicolas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inchentronn chebeir Antonella  </t>
+  </si>
+  <si>
     <t>SEGURA</t>
   </si>
   <si>
-    <t xml:space="preserve">Segura Agustin </t>
-  </si>
-  <si>
-    <t>BRIZUELA</t>
-  </si>
-  <si>
-    <t>Brizuela CELSO MATEO</t>
+    <t xml:space="preserve">Segura Camila </t>
+  </si>
+  <si>
+    <t>TINTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinture Ana luz tinture </t>
+  </si>
+  <si>
+    <t>RAMELLO SALGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramello salgan Joaquin </t>
+  </si>
+  <si>
+    <t>BARROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrosa Rosario </t>
+  </si>
+  <si>
+    <t>CEVOLI ARIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cevoli arias Santino s </t>
+  </si>
+  <si>
+    <t>ROSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rossi Gino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rossi Josefina 7º </t>
   </si>
   <si>
     <t>FERRACUTI</t>
@@ -176,18 +194,96 @@
     <t xml:space="preserve">Ferracuti Mora </t>
   </si>
   <si>
+    <t xml:space="preserve">Ferracuti maria del Pilar </t>
+  </si>
+  <si>
     <t>GEOFFROY</t>
   </si>
   <si>
     <t xml:space="preserve">Geoffroy Emiliano </t>
   </si>
   <si>
+    <t>NEWELL FABBRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newell fabbri Agustina </t>
+  </si>
+  <si>
+    <t>BASUALDO</t>
+  </si>
+  <si>
+    <t>Basualdo Nazareno ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basualdo Walter </t>
+  </si>
+  <si>
+    <t>DONADI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donadi Aldana </t>
+  </si>
+  <si>
+    <t>VENTUALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventuala MAXIMO JOAQUIN </t>
+  </si>
+  <si>
+    <t>Ventuala Iara yazmin</t>
+  </si>
+  <si>
     <t>MATE CABALLO</t>
   </si>
   <si>
     <t xml:space="preserve">Mate caballo Carmela </t>
   </si>
   <si>
+    <t>Mate caballo Tiago   francisco</t>
+  </si>
+  <si>
+    <t>FRANCIONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francioni Bianca </t>
+  </si>
+  <si>
+    <t>FRANCIONI FIORELLA</t>
+  </si>
+  <si>
+    <t>DE FEO</t>
+  </si>
+  <si>
+    <t>De feo Sebastian</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon Rebeca  </t>
+  </si>
+  <si>
+    <t>ALTAMIRANDA CARTES</t>
+  </si>
+  <si>
+    <t>Altamiranda cartes Valentino joaquin</t>
+  </si>
+  <si>
+    <t>PISCHEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pischel Federico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pischel Ana victoria  </t>
+  </si>
+  <si>
+    <t>MARGIOTTA</t>
+  </si>
+  <si>
+    <t>Margiotta martina</t>
+  </si>
+  <si>
     <t>GRAFF GUTTMANN</t>
   </si>
   <si>
@@ -197,922 +293,889 @@
     <t>ESPOSITO</t>
   </si>
   <si>
+    <t xml:space="preserve">ESPOSITO  ISABELLA </t>
+  </si>
+  <si>
     <t xml:space="preserve">Esposito Florentino </t>
   </si>
   <si>
     <t>GOICOECHEA</t>
   </si>
   <si>
-    <t>GOICOECHEA MARCOS GOICOECHEA MARCOS</t>
-  </si>
-  <si>
-    <t>PAZOS</t>
-  </si>
-  <si>
-    <t>Pazos BARBARA CANDELA</t>
-  </si>
-  <si>
-    <t>ROLON</t>
-  </si>
-  <si>
-    <t>Rolon Thomas Mateo</t>
-  </si>
-  <si>
-    <t>PAMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pamer Lai Delfina </t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>Sanchez Diego Joaquin</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramos Valentino  </t>
-  </si>
-  <si>
-    <t>CROCCO OLABARRIETA</t>
-  </si>
-  <si>
-    <t>Crocco olabarrieta Gabriel</t>
-  </si>
-  <si>
-    <t>PEREZ TORGA</t>
-  </si>
-  <si>
-    <t>PEREZ TORGA LUCAS PEREZ TORGA LUCAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perez torga Kiara </t>
-  </si>
-  <si>
-    <t>SOSA</t>
-  </si>
-  <si>
-    <t>Sosa Iara Andrea</t>
-  </si>
-  <si>
-    <t>Sosa PRISCILA ROCIO</t>
-  </si>
-  <si>
-    <t>MUCHUT</t>
-  </si>
-  <si>
-    <t>MUCHUT CAMILA</t>
-  </si>
-  <si>
-    <t>DATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dato Martina </t>
-  </si>
-  <si>
-    <t>BEVACQUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bevacqua Esteban  </t>
-  </si>
-  <si>
-    <t>IZCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izco Valentina jazmin </t>
-  </si>
-  <si>
-    <t>MARTIN AVENDAÑO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin avendaño Julian ezequiel  </t>
-  </si>
-  <si>
-    <t>ZGAIB</t>
-  </si>
-  <si>
-    <t>ZGAIB FARAH MIA ZGAIB FARAH MIA</t>
-  </si>
-  <si>
-    <t>CUENYA</t>
-  </si>
-  <si>
-    <t>CUENYA JULIÁN CUENYA JULIÁN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuenya Mateo </t>
-  </si>
-  <si>
-    <t>YUNGBLUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yungblut Sebastian </t>
+    <t>Goicoechea Juana</t>
+  </si>
+  <si>
+    <t>PEREZ ARJONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perez arjona Bianca </t>
+  </si>
+  <si>
+    <t>TOLOSA GALLEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolosa gallego Camila 7º </t>
+  </si>
+  <si>
+    <t>Tolosa gallego Sofia</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>Alejandro Julieta</t>
+  </si>
+  <si>
+    <t>ANSOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansola Felicitas </t>
+  </si>
+  <si>
+    <t>FERMANELLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fermanelli Gino </t>
+  </si>
+  <si>
+    <t>GIARRUSSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giarrusso Francesca </t>
   </si>
   <si>
     <t>CEVOLI PISON</t>
   </si>
   <si>
-    <t xml:space="preserve">CEBOLI PISON  AUGUSTO GABRIEL </t>
+    <t xml:space="preserve">Cevoli pison Octavio tomas </t>
   </si>
   <si>
     <t>ABATE</t>
   </si>
   <si>
-    <t xml:space="preserve">ABATE  ROCIO AYLIN </t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>Guzman Guzman juan ignacio</t>
+    <t xml:space="preserve">Abate Sofia nahir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abate Nahuel agustin  </t>
+  </si>
+  <si>
+    <t>FAVRETTO</t>
+  </si>
+  <si>
+    <t>Favretto Agustin 7º</t>
   </si>
   <si>
     <t>TASSARA</t>
   </si>
   <si>
-    <t>TASSARA SERRANO ISABELLA</t>
+    <t xml:space="preserve">Tassara Sereno francisco </t>
   </si>
   <si>
     <t>KEDAK RODRIGUEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Kedak rodriguez Maria agustina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodriguez CASAS brenda mariana </t>
+    <t>Kedak rodriguez mateo</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muñoz Guadalupe </t>
+  </si>
+  <si>
+    <t>MARTINEZ CASTAÑON</t>
+  </si>
+  <si>
+    <t>Martinez castañon emma victoria</t>
+  </si>
+  <si>
+    <t>MOYANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyano juana </t>
+  </si>
+  <si>
+    <t>EPUL MORAN</t>
+  </si>
+  <si>
+    <t>Epul moran julian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANG </t>
+  </si>
+  <si>
+    <t>Lang  Lang samuel ulises 7º</t>
+  </si>
+  <si>
+    <t>CHARRO ARIAS</t>
+  </si>
+  <si>
+    <t>Charro arias Charro arias maria jose 7º</t>
+  </si>
+  <si>
+    <t>MILLACURA</t>
+  </si>
+  <si>
+    <t>Millacura Millacura maia catalina 7º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUCICH LARRALDE </t>
+  </si>
+  <si>
+    <t>Kucich larralde  Kucich-larralde marco 7º</t>
+  </si>
+  <si>
+    <t>RAMOS SERRA</t>
+  </si>
+  <si>
+    <t>Ramos Serra Bianca Anahi</t>
+  </si>
+  <si>
+    <t>ALTAMIRANDA SIEGENTHALER</t>
+  </si>
+  <si>
+    <t>Altamiranda siegenthaler lola</t>
+  </si>
+  <si>
+    <t>SOPRANZETTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sopranzetti santino </t>
+  </si>
+  <si>
+    <t>PEÑA ESCOBAR</t>
+  </si>
+  <si>
+    <t>ESCOBAR PEÑA  JUANSE</t>
+  </si>
+  <si>
+    <t>ESCOBAR PEÑA  LUCIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peña escobar Escobar peña lucio </t>
+  </si>
+  <si>
+    <t>COSTA</t>
+  </si>
+  <si>
+    <t>Costa kailena josefina</t>
+  </si>
+  <si>
+    <t>Costa Paulina 7º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Tiziano  </t>
+  </si>
+  <si>
+    <t>LORIENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loriente Santiago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loriente Tomas  </t>
+  </si>
+  <si>
+    <t>Loriente Martina 7º</t>
+  </si>
+  <si>
+    <t>VILCHEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vilchez Roman benjamin </t>
+  </si>
+  <si>
+    <t>CASAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASAS CASTRO  JULIETA BELEN </t>
+  </si>
+  <si>
+    <t>RETAMAL RUIZ - RIVAS</t>
+  </si>
+  <si>
+    <t>Retamal ruiz brisa mia</t>
+  </si>
+  <si>
+    <t>PARRA ESTEVANACIO</t>
+  </si>
+  <si>
+    <t>Parra estevanacio Valentin</t>
+  </si>
+  <si>
+    <t>LOPEZ MATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopez mata Estanislao </t>
+  </si>
+  <si>
+    <t>GONZALEZ SACCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzalez sacco Lourdes maria  </t>
+  </si>
+  <si>
+    <t>Gonzalez sacco Mercedita</t>
+  </si>
+  <si>
+    <t>ENTRAIGAS</t>
+  </si>
+  <si>
+    <t>Entraigas Lucas andre 7º</t>
+  </si>
+  <si>
+    <t>ARCE</t>
+  </si>
+  <si>
+    <t>Arce Martina 7º</t>
+  </si>
+  <si>
+    <t>DIFABIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difabio Faustino nicolas </t>
+  </si>
+  <si>
+    <t>CARAZZONE ZILLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carazzone   valentino </t>
+  </si>
+  <si>
+    <t>DUBOSQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubosq Violeta s  </t>
+  </si>
+  <si>
+    <t>Dubosq Josefina</t>
   </si>
   <si>
     <t>KUCICH</t>
   </si>
   <si>
-    <t>kucich alvarez gustavo emanuel</t>
-  </si>
-  <si>
-    <t>RACCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racca Diego </t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco  gabriel </t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>Muñoz Juan ignacio</t>
-  </si>
-  <si>
-    <t>STABILE</t>
-  </si>
-  <si>
-    <t>STABILE FRANCISCO STABILE FRANCISCO</t>
-  </si>
-  <si>
-    <t>STABILE BAUTISTA STABILE BAUTISTA</t>
-  </si>
-  <si>
-    <t>GALDON</t>
-  </si>
-  <si>
-    <t>GALDON JOAQUIN GALDON JOAQUIN</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>Reyes FEDERICO EZEQUIEL</t>
-  </si>
-  <si>
-    <t>MARTINEZ CASTAÑON</t>
-  </si>
-  <si>
-    <t>Martinez castañon emma victoria</t>
-  </si>
-  <si>
-    <t>MELILLAN</t>
-  </si>
-  <si>
-    <t>Melillan CAÑUMIL Ignacio</t>
-  </si>
-  <si>
-    <t>MOYANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyano juana </t>
-  </si>
-  <si>
-    <t>ALTAMIRANDA SIEGENTHALER</t>
-  </si>
-  <si>
-    <t>Altamiranda siegenthaler lola</t>
-  </si>
-  <si>
-    <t>PEÑA ESCOBAR</t>
-  </si>
-  <si>
-    <t>ESCOBAR PEÑA  LUCIO</t>
-  </si>
-  <si>
-    <t>BALDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balda Constanza </t>
-  </si>
-  <si>
-    <t>LEDESMA</t>
-  </si>
-  <si>
-    <t>Ledesma Paula</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contreras Sofia </t>
-  </si>
-  <si>
-    <t>Contreras Nicolas</t>
-  </si>
-  <si>
-    <t>CASAS</t>
-  </si>
-  <si>
-    <t>CASAS CASTRO ELIAS DANIEL CASAS CASTRO ELIAS DANIEL</t>
-  </si>
-  <si>
-    <t>DIFABIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difabio Faustino nicolas </t>
-  </si>
-  <si>
-    <t>BONDINO CAPPONI</t>
-  </si>
-  <si>
-    <t>Bondino capponi Tania  Valentina</t>
-  </si>
-  <si>
-    <t>TRILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trillo Sofia </t>
-  </si>
-  <si>
-    <t>AGUIAR</t>
-  </si>
-  <si>
-    <t>Aguiar Morena valentina</t>
+    <t>Kucich Micaela</t>
+  </si>
+  <si>
+    <t>QUINTANA MARTIN</t>
+  </si>
+  <si>
+    <t>QUINTANA MARTIN JANO</t>
+  </si>
+  <si>
+    <t>TESEI ABARZUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESEI ABARZUA  VICTORIA FIORELLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesei abarzua Giovanna florencia </t>
+  </si>
+  <si>
+    <t>GALAN</t>
+  </si>
+  <si>
+    <t>Galan Andres 7º</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ MORENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodriguez moreno Galo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodriguez moreno Juana  </t>
+  </si>
+  <si>
+    <t>PEREZ SHERRIFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perez sherriff Laureano ian </t>
+  </si>
+  <si>
+    <t>POBLET BATTCOCK</t>
+  </si>
+  <si>
+    <t>Poblet battcock Ambar</t>
+  </si>
+  <si>
+    <t>Poblet battcock Mirko ezequiel</t>
+  </si>
+  <si>
+    <t>ERCOLESSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ercolesse Tobias  </t>
+  </si>
+  <si>
+    <t>GODOY LEDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godoy leder Sol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GODOY LEDER  AZUL </t>
+  </si>
+  <si>
+    <t>ARRAYAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrayago Ian  </t>
+  </si>
+  <si>
+    <t>MORENO OTERO</t>
+  </si>
+  <si>
+    <t>Moreno otero Valentin</t>
+  </si>
+  <si>
+    <t>KRIGER</t>
+  </si>
+  <si>
+    <t>Kriger Alejandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kriger Santiago liam </t>
+  </si>
+  <si>
+    <t>HERRERA MORENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herrera moreno Bautista </t>
+  </si>
+  <si>
+    <t>TORTAROLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortarolo Lara </t>
+  </si>
+  <si>
+    <t>AMALFITANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amalfitano Valentino </t>
+  </si>
+  <si>
+    <t>ORENGO LOPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orengo lopez Santino </t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baez Sol baez durrieu </t>
+  </si>
+  <si>
+    <t>LENSCHOW</t>
+  </si>
+  <si>
+    <t>LENSCHOW HELENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenschon Cain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENSCHOW ESMERALDA </t>
+  </si>
+  <si>
+    <t>BELMAR CAYUQUEO</t>
+  </si>
+  <si>
+    <t>Belmar cayuqueo tiziano</t>
+  </si>
+  <si>
+    <t>GARRIDO PORRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrido porro Garrido porro Sol Milagros </t>
+  </si>
+  <si>
+    <t>VILLANUEVA BRUSSINO</t>
+  </si>
+  <si>
+    <t>Villanueva brussino Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASUALDO ALMAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASUALDO ALMAR  NAZARENO </t>
+  </si>
+  <si>
+    <t>Basualdo almar  Basualdo agustin 7º</t>
+  </si>
+  <si>
+    <t>Basualdo almar  Basualdo nazareno ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVALE </t>
+  </si>
+  <si>
+    <t>Avale  Avale Juan Martin</t>
+  </si>
+  <si>
+    <t>TENAGLIA</t>
+  </si>
+  <si>
+    <t>Tenaglia Tenaglia Luisina</t>
+  </si>
+  <si>
+    <t>SLOWIK</t>
+  </si>
+  <si>
+    <t>Slowik Juana</t>
+  </si>
+  <si>
+    <t>CUETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUETO  LORENZO MARTIN </t>
+  </si>
+  <si>
+    <t>Cueto Juan manuel</t>
+  </si>
+  <si>
+    <t>BLUMAN CONSTANTE</t>
+  </si>
+  <si>
+    <t>Bluman constante Bluman Constante Joaquin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTEROS </t>
+  </si>
+  <si>
+    <t>Quinteros   Quinteros Valentina</t>
+  </si>
+  <si>
+    <t>Quinteros  Mateo Roman</t>
+  </si>
+  <si>
+    <t>TORRES PEREIRA</t>
+  </si>
+  <si>
+    <t>Torres pereira Azequiel nikodemo</t>
+  </si>
+  <si>
+    <t>MUJICA - NICOLETTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicoletti  Cipriano </t>
+  </si>
+  <si>
+    <t>VICENZO  NICOLETTI</t>
+  </si>
+  <si>
+    <t>Nicoletti  Brunella</t>
+  </si>
+  <si>
+    <t>Mujica - nicoletti Mujica lorenzo 7º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTADA MATZEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portada matzen  Maximo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portada matzen  Pilar  </t>
+  </si>
+  <si>
+    <t>Giarrusso Giuliana</t>
+  </si>
+  <si>
+    <t>PORRETTI</t>
+  </si>
+  <si>
+    <t>Porretti Porretti maximo 7º</t>
+  </si>
+  <si>
+    <t>FOURMANTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourmantin Azul </t>
+  </si>
+  <si>
+    <t>Fourmantin Avril  7º</t>
+  </si>
+  <si>
+    <t>MEDIN</t>
+  </si>
+  <si>
+    <t>Medin Victoria 7º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medin Eleonora </t>
+  </si>
+  <si>
+    <t>LAURIENTE - CAMBARERI</t>
+  </si>
+  <si>
+    <t>Lauriente Rodriguez Gianella Loriana</t>
+  </si>
+  <si>
+    <t>Lauriente - cambareri Cambareri celina 7º</t>
   </si>
   <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>Torres Florencia rOCIO</t>
-  </si>
-  <si>
-    <t>CARRIZO BERREAUNTE</t>
-  </si>
-  <si>
-    <t>CARRIZO BERREAUTE JORGELINA MACARENA</t>
-  </si>
-  <si>
-    <t>SCAVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scavo Facundo manuel </t>
-  </si>
-  <si>
-    <t>CASTAÑON</t>
-  </si>
-  <si>
-    <t>Castañon CANDELA MAILEN</t>
-  </si>
-  <si>
-    <t>SARANZ OCHOA</t>
-  </si>
-  <si>
-    <t>Saranz ochoa Alejo</t>
-  </si>
-  <si>
-    <t>LICCARDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liccardi Daniel </t>
-  </si>
-  <si>
-    <t>OLIVERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olivera Guillermina </t>
-  </si>
-  <si>
-    <t>POBLET BATTCOCK</t>
-  </si>
-  <si>
-    <t>Poblet battcock Ambar</t>
-  </si>
-  <si>
-    <t>HUARRACAN</t>
-  </si>
-  <si>
-    <t>HUARRACAN LUCILA MILAGROS</t>
-  </si>
-  <si>
-    <t>SALAZAR IRLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salazar irle Ivo lionel </t>
-  </si>
-  <si>
-    <t>MORENO OTERO</t>
-  </si>
-  <si>
-    <t>Moreno otero santiago Nicolas</t>
-  </si>
-  <si>
-    <t>FOLINO</t>
-  </si>
-  <si>
-    <t>FOLINO VALENTINA FOLINO VALENTINA</t>
-  </si>
-  <si>
-    <t>MIGLIERINI</t>
-  </si>
-  <si>
-    <t>Miglierini ORIANA</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>WAGNER Ezequiel miguel</t>
-  </si>
-  <si>
-    <t>HERRERA MORENO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herrera moreno Bautista </t>
-  </si>
-  <si>
-    <t>VIDAURRETA</t>
-  </si>
-  <si>
-    <t>Vidaurreta Emiliano franco</t>
-  </si>
-  <si>
-    <t>SPECIALES</t>
-  </si>
-  <si>
-    <t>Speciale Valentina</t>
-  </si>
-  <si>
-    <t>CAMBRUZZI</t>
-  </si>
-  <si>
-    <t>Cambruzzi Valentina abril</t>
-  </si>
-  <si>
-    <t>EIDINTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eidintas Fausto </t>
-  </si>
-  <si>
-    <t>COSTA LEZCANO</t>
-  </si>
-  <si>
-    <t>Costa lezcano Valeria</t>
-  </si>
-  <si>
-    <t>HUECHE</t>
-  </si>
-  <si>
-    <t>hueche camila victoria</t>
-  </si>
-  <si>
-    <t>NICOLINI POLIS</t>
-  </si>
-  <si>
-    <t>Nicolini polis Antonella</t>
-  </si>
-  <si>
-    <t>GOMEZ FERNANDEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomez fernandez Yazmin yenien </t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>Villegas MATIAS</t>
-  </si>
-  <si>
-    <t>SANCHEZ LIVIGNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanchez livigni Bernardita </t>
-  </si>
-  <si>
-    <t>ARANDA</t>
-  </si>
-  <si>
-    <t>Aranda MARIANA MICAELA</t>
-  </si>
-  <si>
-    <t>VALLA</t>
-  </si>
-  <si>
-    <t>Valla DIEGO JOAQUIN</t>
-  </si>
-  <si>
-    <t>ANTUNES</t>
-  </si>
-  <si>
-    <t>Antunes CAMILO</t>
-  </si>
-  <si>
-    <t>ESCOBAR PUSTULA</t>
-  </si>
-  <si>
-    <t>Escobar pustula IGNACIO MARTIN</t>
-  </si>
-  <si>
-    <t>LIZAMA AGUIRRE</t>
-  </si>
-  <si>
-    <t>Lizama Aguirre, Macarena Lizama Aguirre, Macarena</t>
-  </si>
-  <si>
-    <t>CAMPOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campot Campot brisa irina </t>
-  </si>
-  <si>
-    <t>ALBERTINI</t>
-  </si>
-  <si>
-    <t>Albertini, Bruno León Albertini, Bruno León</t>
-  </si>
-  <si>
-    <t>VILCA</t>
-  </si>
-  <si>
-    <t>Vilca gEREZ aBRIL ALBA</t>
-  </si>
-  <si>
-    <t>MUANNA</t>
-  </si>
-  <si>
-    <t>Muanna AIARA</t>
-  </si>
-  <si>
-    <t>MARTEL</t>
-  </si>
-  <si>
-    <t>Martel IBAÑEZ NAHIR ARIEL</t>
-  </si>
-  <si>
-    <t>CHAZARRETA</t>
-  </si>
-  <si>
-    <t>Chazarreta PEREZ FLORENCIA DÇSELENA</t>
-  </si>
-  <si>
-    <t>TENAGLIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENAGLIA  FAUSTO </t>
-  </si>
-  <si>
-    <t>SLOWIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLOWICK LUCIA </t>
-  </si>
-  <si>
-    <t>MEDIN</t>
-  </si>
-  <si>
-    <t>MEDIN  LUISINA CONSTANZA</t>
+    <t>Torres Juana</t>
+  </si>
+  <si>
+    <t>INDA RICHERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDA RICHERT JOSEFINA </t>
+  </si>
+  <si>
+    <t>Inda richert Anda richert Ignacio</t>
+  </si>
+  <si>
+    <t>WAGNER GRASSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagner grassi Guillermo </t>
   </si>
   <si>
     <t>PEREZ BOERI</t>
   </si>
   <si>
-    <t>Perez boeri LUANA</t>
+    <t xml:space="preserve">Perez boeri Juliana s 7º </t>
+  </si>
+  <si>
+    <t>Perez boeri Gonzalo</t>
   </si>
   <si>
     <t>ZANOTTI - ZUNZUNEGUI</t>
   </si>
   <si>
-    <t>Zanotti, Donato Zanotti, Donato</t>
-  </si>
-  <si>
-    <t>Zunzunegui Mondillo Nicolas Rafael</t>
-  </si>
-  <si>
-    <t>ARRO</t>
-  </si>
-  <si>
-    <t>ARRO SOL CHIARA ARRO SOL CHIARA</t>
-  </si>
-  <si>
-    <t>AGUILERA GATICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguilera gatica facundo tobias </t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castillo Castillo kevin maglio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERONE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerone  Cerone luca antonio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crespo Crespo agustina belen  </t>
-  </si>
-  <si>
-    <t>MULLER ALONZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muller alonzo Analaura </t>
+    <t>Zanotti  maria pia</t>
+  </si>
+  <si>
+    <t>MAZZONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mazzoni Guadalupe </t>
+  </si>
+  <si>
+    <t>AGUIRRE DESCH</t>
+  </si>
+  <si>
+    <t>Aguirre desch Martin</t>
+  </si>
+  <si>
+    <t>SERRA CUBA</t>
+  </si>
+  <si>
+    <t>Serra cuba Paloma</t>
+  </si>
+  <si>
+    <t>NAHUELCHEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahuelcheo Tahiel agustin </t>
+  </si>
+  <si>
+    <t>FOGELMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fogelman Lucia </t>
+  </si>
+  <si>
+    <t>FRESCO ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresco alejandro cristian Valentin </t>
+  </si>
+  <si>
+    <t>RANDAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randazo Victoria </t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramirez Ambar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramirez Alejo  </t>
+  </si>
+  <si>
+    <t>YABLOCHKOW CARES</t>
+  </si>
+  <si>
+    <t>Yablochkow cares Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yablochkow cares Lucas  </t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>Diaz  Alan anibal</t>
+  </si>
+  <si>
+    <t>GESTOSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestoso Sebastian </t>
+  </si>
+  <si>
+    <t>GRAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graf Joel valentin </t>
+  </si>
+  <si>
+    <t>TELLO KRENZ</t>
+  </si>
+  <si>
+    <t>Tello krenz Tadeo Martin</t>
   </si>
   <si>
     <t xml:space="preserve">COLOMBO </t>
   </si>
   <si>
-    <t xml:space="preserve">Colombo  Colombo martina </t>
-  </si>
-  <si>
-    <t>FUERTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuertes Fuertes alexis ezequiel </t>
-  </si>
-  <si>
-    <t>LEFIU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lefiu damian lihuel </t>
-  </si>
-  <si>
-    <t>ESTABILLO</t>
-  </si>
-  <si>
-    <t>Estabillo JOAQUIN ARAMIS</t>
-  </si>
-  <si>
-    <t>DINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dina Dina denis gabriel </t>
-  </si>
-  <si>
-    <t>LEAL</t>
-  </si>
-  <si>
-    <t>Leal MARCOS ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOSQUERA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosquera  ezequiel </t>
-  </si>
-  <si>
-    <t>BELVEREDE</t>
-  </si>
-  <si>
-    <t>Belverede SANTIAGO MATIAS</t>
-  </si>
-  <si>
-    <t>ERVITI POINSOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erviti poinsot Erviti poinsot federico andres </t>
-  </si>
-  <si>
-    <t>GARCIA MUÑOZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garcia muñoz Merlina </t>
-  </si>
-  <si>
-    <t>CABALLIERI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caballieri Caballieri maria genoveva </t>
-  </si>
-  <si>
-    <t>CORIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coria Coria camila </t>
-  </si>
-  <si>
-    <t>KREITZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreitz Kreitz valentina abril </t>
-  </si>
-  <si>
-    <t>SERRA CUBA</t>
-  </si>
-  <si>
-    <t>Serra cuba Paloma</t>
-  </si>
-  <si>
-    <t>NAHUELCHEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nahuelcheo Tahiel agustin </t>
-  </si>
-  <si>
-    <t>FOGELMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fogelman Lucia </t>
-  </si>
-  <si>
-    <t>FRESCO ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresco alejandro cristian Valentin </t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramirez Ambar </t>
-  </si>
-  <si>
-    <t>YABLOCHKOW CARES</t>
-  </si>
-  <si>
-    <t>Yablochkow cares Sofia</t>
-  </si>
-  <si>
-    <t>GRAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAF LARA </t>
-  </si>
-  <si>
-    <t>ELOSEGUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elosegui Juan ignacio </t>
-  </si>
-  <si>
-    <t>ARBURUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arburua Lara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arburua  sabina </t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>ALVAREZ BRISA YAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramirez ORENGO Bianca </t>
-  </si>
-  <si>
-    <t>TORDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tordi Juan manuel </t>
-  </si>
-  <si>
-    <t>FORCHINO</t>
-  </si>
-  <si>
-    <t>Forchino WENDY DAIANA</t>
-  </si>
-  <si>
-    <t>GONZALEZ GATICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzalez gatica Agustina </t>
-  </si>
-  <si>
-    <t>TENAGLIA  JULIANA AGUSTINA</t>
-  </si>
-  <si>
-    <t>VALCARCEL</t>
-  </si>
-  <si>
-    <t>VALCARCEL JUAN MANUEL</t>
+    <t>Colombo Schell tomas</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortiz Juanita Martina </t>
+  </si>
+  <si>
+    <t>LASTRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastra Francesca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LASTRA  SIMON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORON </t>
+  </si>
+  <si>
+    <t>Moron  Juan salvador ni</t>
+  </si>
+  <si>
+    <t>Moron Traversa Juan Salvador Ceferino</t>
+  </si>
+  <si>
+    <t>FRESCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRESCO  SANTIAGO MANUEL </t>
+  </si>
+  <si>
+    <t>SAMPIERI ALCARAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampieri alcaraz Brisa </t>
+  </si>
+  <si>
+    <t>VIDAL CUITIÑO</t>
+  </si>
+  <si>
+    <t>Vidal Cutiño Morena</t>
+  </si>
+  <si>
+    <t>ACUÑA</t>
+  </si>
+  <si>
+    <t>Acuña Umma Shirel</t>
+  </si>
+  <si>
+    <t>Acuña Gael eliaz (hno anabel v)</t>
+  </si>
+  <si>
+    <t>ÑANCULEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ñanculeu Morena </t>
+  </si>
+  <si>
+    <t>LANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lang Lucas c 7º </t>
+  </si>
+  <si>
+    <t>Lang Agostina</t>
+  </si>
+  <si>
+    <t>Lang  valentina</t>
+  </si>
+  <si>
+    <t>BARZOU</t>
+  </si>
+  <si>
+    <t>Barzou Tatiana ni</t>
+  </si>
+  <si>
+    <t>JACOB - PRETZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRETZ FRANCO EMMANUEL </t>
+  </si>
+  <si>
+    <t>SENGER</t>
+  </si>
+  <si>
+    <t>Senger Santino</t>
+  </si>
+  <si>
+    <t>ITURBURU</t>
+  </si>
+  <si>
+    <t>ITURBURU BALOGH JOSEFINA INES</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>Martinez Josefina</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORA  luana </t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>Moreno Santino Ismael</t>
+  </si>
+  <si>
+    <t>Moreno Tizziana Ihara</t>
   </si>
   <si>
     <t>ORTEGA</t>
   </si>
   <si>
-    <t>ORTEGA FIORELLA ORTEGA FIORELLA</t>
-  </si>
-  <si>
-    <t>COMBRET</t>
-  </si>
-  <si>
-    <t>COMBRET  AMELIE</t>
-  </si>
-  <si>
-    <t>LAFOSSE</t>
-  </si>
-  <si>
-    <t>LAFOSSE  IGNACIO FRANCISCO</t>
-  </si>
-  <si>
-    <t>PALMIERI PESCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALMIERI PESCE ISABEL </t>
-  </si>
-  <si>
-    <t>LINARES BRITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINARES BRITO  FRANCO GUSTAVO </t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDEZ SOL JAZMIN </t>
-  </si>
-  <si>
-    <t>ALEMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEMAN  FELIPE ABEL </t>
-  </si>
-  <si>
-    <t>ARISTIMUÑO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARISTIMUÑO  HELENA </t>
+    <t>ORTEGA FELIPE</t>
+  </si>
+  <si>
+    <t>SEROFF GUTIERREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEROFF GUTIERREZ HELENA </t>
+  </si>
+  <si>
+    <t>REINOSO POCAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINOSO POCAI AGOSTINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTA  FIORELLA ROCIO </t>
+  </si>
+  <si>
+    <t>OLIVERO</t>
+  </si>
+  <si>
+    <t>OLIVERO  JUANA</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCOS  JOSEFINA </t>
+  </si>
+  <si>
+    <t>BILBAO</t>
+  </si>
+  <si>
+    <t>BILBAO  GABRIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>CORZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORZO BENJAMIN AUGUSTO </t>
+  </si>
+  <si>
+    <t>TRONCOSO HUBER</t>
+  </si>
+  <si>
+    <t>TRONCOSO HUBER  BENJAMIN</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>CARRASCO GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ </t>
+  </si>
+  <si>
+    <t>SANCHEZ SAMBRANO  MIA CRISTAL</t>
+  </si>
+  <si>
+    <t>POLIZZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLIZZI  LUCAS SANTINO </t>
+  </si>
+  <si>
+    <t>Martinez Pilar</t>
   </si>
   <si>
     <t>GARCIA LAGO</t>
   </si>
   <si>
-    <t>garcia lago tobias</t>
-  </si>
-  <si>
-    <t>TAPIA</t>
-  </si>
-  <si>
-    <t>tapia giuliana</t>
-  </si>
-  <si>
-    <t>IURI</t>
-  </si>
-  <si>
-    <t>IURI VALENTINO ANDRES</t>
-  </si>
-  <si>
-    <t>CARNEVALE ROMANI</t>
-  </si>
-  <si>
-    <t>CARNEVALE ROMANI AGUSTIN CARNEVALE ROMANI AGUSTIN</t>
-  </si>
-  <si>
-    <t>ROSSI O´TOOLE</t>
-  </si>
-  <si>
-    <t>ROSSI O^TOOLE PAZ</t>
-  </si>
-  <si>
-    <t>SEMPRONI - MOYANO</t>
-  </si>
-  <si>
-    <t>Moyano, Miranda Moyano, Miranda</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>Castro Valentina</t>
-  </si>
-  <si>
-    <t>BIANCHI BRAVO</t>
-  </si>
-  <si>
-    <t>BIANCHI BRAVO JULIETA BIANCHI BRAVO JULIETA</t>
-  </si>
-  <si>
-    <t>IRIBARNE PORRO</t>
-  </si>
-  <si>
-    <t>Iribarne Porro, Mateo Iribarne Porro, Mateo</t>
-  </si>
-  <si>
-    <t>MILLACHE</t>
-  </si>
-  <si>
-    <t>Millache, Olivia Millache, Olivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN BON </t>
-  </si>
-  <si>
-    <t>Main Bon, Josefina Main Bon, Josefina</t>
-  </si>
-  <si>
-    <t>MARQUEZ CARDOZO</t>
-  </si>
-  <si>
-    <t>Marques Cardozo, Emilia Avril Marques Cardozo, Emilia Avril</t>
-  </si>
-  <si>
-    <t>SCATTOLINI</t>
-  </si>
-  <si>
-    <t>Scatolini, Stefano Scatolini, Stefano</t>
-  </si>
-  <si>
-    <t>CABRAL</t>
-  </si>
-  <si>
-    <t>CABRAL LAUTARO LEONEL CABRAL LAUTARO LEONEL</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>Perez Micaela Pilar</t>
-  </si>
-  <si>
-    <t>Tapia Matia</t>
-  </si>
-  <si>
-    <t>BARBARA MERLO</t>
-  </si>
-  <si>
-    <t>BARBARA MERLO MORENA BARBARA MERLO MORENA</t>
-  </si>
-  <si>
-    <t>RUIZ GUZMAN</t>
-  </si>
-  <si>
-    <t>RUIZ GUZMAN GASTON NICOLAS RUIZ GUZMAN GASTON NICOLAS</t>
-  </si>
-  <si>
-    <t>CUEVAS</t>
-  </si>
-  <si>
-    <t>CUEVAS GUADALUPE BEATRIZ CUEVAS GUADALUPE BEATRIZ</t>
-  </si>
-  <si>
-    <t>MANRIQUEZ</t>
-  </si>
-  <si>
-    <t>MANRIQUEZ JAZMIN SOFÍA MANRIQUEZ JAZMIN SOFÍA</t>
-  </si>
-  <si>
-    <t>CAMBARERI</t>
-  </si>
-  <si>
-    <t>CAMBARERI RENATTA CAMBARERI RENATTA</t>
-  </si>
-  <si>
-    <t>GRAF MARTINEZ</t>
-  </si>
-  <si>
-    <t>Graf  Martinez, Ariana Graf  Martinez, Ariana</t>
-  </si>
-  <si>
-    <t>PUERTAS BASILI</t>
-  </si>
-  <si>
-    <t>PUERTAS BASILI EMILIA</t>
-  </si>
-  <si>
-    <t>OROS</t>
-  </si>
-  <si>
-    <t>OROS FAUSTO</t>
+    <t>Garcia Lago Milo</t>
+  </si>
+  <si>
+    <t>Garcia Lago Manuel</t>
+  </si>
+  <si>
+    <t>KUGLER MENDOZA</t>
+  </si>
+  <si>
+    <t>Kugler Mendoza  Jazmin</t>
+  </si>
+  <si>
+    <t>JACOB</t>
+  </si>
+  <si>
+    <t>Jacob Martina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEROTTI </t>
+  </si>
+  <si>
+    <t>PEROTTI CATALINA</t>
+  </si>
+  <si>
+    <t>HUMACATA</t>
+  </si>
+  <si>
+    <t>Humacata Priscila Sarai De Los Angeles</t>
+  </si>
+  <si>
+    <t>AHIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHIM  LUISANA </t>
+  </si>
+  <si>
+    <t>MIRANDA MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRANDA  MARTIN FACUNDO </t>
   </si>
   <si>
     <t>AURRECOECHEA</t>
@@ -1121,28 +1184,13 @@
     <t>AURRECOECHEA IGNACIO ROBUSTIANO</t>
   </si>
   <si>
-    <t>VOLOVICHAS GOROZO</t>
-  </si>
-  <si>
-    <t>VOLOVICHAS GOROZO Martina</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>Román, Mía Román, Mía</t>
-  </si>
-  <si>
-    <t>FRITZ</t>
-  </si>
-  <si>
-    <t>Fritz, Juan Ignacio Fritz, Juan Ignacio</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>DIAZ FEDERICO LEANDRO DIAZ FEDERICO LEANDRO</t>
+    <t>AURRECOECHEA Emilia Antonia</t>
+  </si>
+  <si>
+    <t>LINARES DILSCHNEIDER</t>
+  </si>
+  <si>
+    <t>LINARES DILSCHNEIDER BRIANA ISABEL</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1529,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E1" sqref="E1"/>
@@ -1491,8 +1539,8 @@
   <cols>
     <col min="1" max="1" width="29.421387" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="70.697021" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="49.416504" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="44.703369" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="26.993408" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1518,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1527,58 +1575,58 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>1800.0</v>
+        <v>1275.0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>3750.0</v>
+        <v>1275.0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>3750.0</v>
+        <v>1105.0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6">
-        <v>3250.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1586,41 +1634,41 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1629,3169 +1677,3696 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>3250.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>296.4</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13">
-        <v>3750.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>3250.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>3000.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E18">
-        <v>3250.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B25">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B26">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>3000.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B29">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B30">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B31">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B32">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B33">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33">
-        <v>3000.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B34">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B35">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B36">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B37">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B38">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B40">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B41">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B42">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B43">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B44">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B45">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B46">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B47">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B48">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B49">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B50">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B51">
-        <v>302</v>
+        <v>225</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B52">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
       <c r="E52">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B53">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
       <c r="E53">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B54">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B55">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B56">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B57">
-        <v>346</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B58">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B59">
-        <v>363</v>
+        <v>284</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B60">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B61">
-        <v>379</v>
+        <v>288</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B62">
-        <v>382</v>
+        <v>301</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B63">
-        <v>384</v>
+        <v>313</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63">
-        <v>3000.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B64">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
       <c r="E64">
-        <v>3000.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B65">
-        <v>391</v>
+        <v>318</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B66">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
       <c r="E66">
-        <v>3250.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B67">
-        <v>411</v>
+        <v>320</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
       </c>
       <c r="E67">
-        <v>3250.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B68">
-        <v>412</v>
+        <v>326</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B69">
-        <v>415</v>
+        <v>336</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B70">
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B71">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B72">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B73">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B74">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B75">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B76">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B77">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B78">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B79">
-        <v>490</v>
+        <v>427</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B80">
-        <v>511</v>
+        <v>436</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B81">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B82">
-        <v>517</v>
+        <v>440</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B83">
-        <v>519</v>
+        <v>440</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B84">
-        <v>528</v>
+        <v>440</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B85">
-        <v>534</v>
+        <v>441</v>
       </c>
       <c r="C85" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
       </c>
       <c r="E85">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B86">
-        <v>539</v>
+        <v>441</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
       </c>
       <c r="E86">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B87">
-        <v>540</v>
+        <v>441</v>
       </c>
       <c r="C87" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
       <c r="E87">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B88">
-        <v>547</v>
+        <v>442</v>
       </c>
       <c r="C88" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
       </c>
       <c r="E88">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B89">
-        <v>548</v>
+        <v>442</v>
       </c>
       <c r="C89" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
       </c>
       <c r="E89">
-        <v>3250.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B90">
-        <v>555</v>
+        <v>442</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
       </c>
       <c r="E90">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B91">
-        <v>569</v>
+        <v>449</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
       </c>
       <c r="E91">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B92">
-        <v>571</v>
+        <v>457</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
       <c r="E92">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B93">
-        <v>572</v>
+        <v>460</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
       <c r="E93">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B94">
-        <v>573</v>
+        <v>463</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
       <c r="E94">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B95">
-        <v>578</v>
+        <v>466</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
       <c r="E95">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B96">
-        <v>585</v>
+        <v>467</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
       <c r="E96">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B97">
-        <v>586</v>
+        <v>467</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B98">
-        <v>588</v>
+        <v>469</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
       <c r="E98">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B99">
-        <v>590</v>
+        <v>470</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
       <c r="E99">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B100">
-        <v>593</v>
+        <v>471</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
       <c r="E100">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B101">
-        <v>607</v>
+        <v>472</v>
       </c>
       <c r="C101" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
       <c r="E101">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B102">
-        <v>608</v>
+        <v>487</v>
       </c>
       <c r="C102" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B103">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
       <c r="E103">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B104">
-        <v>621</v>
+        <v>488</v>
       </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B105">
-        <v>623</v>
+        <v>524</v>
       </c>
       <c r="C105" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B106">
-        <v>628</v>
+        <v>531</v>
       </c>
       <c r="C106" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
       <c r="E106">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B107">
-        <v>630</v>
+        <v>531</v>
       </c>
       <c r="C107" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B108">
-        <v>639</v>
+        <v>536</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B109">
-        <v>644</v>
+        <v>537</v>
       </c>
       <c r="C109" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109">
-        <v>3000.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B110">
-        <v>650</v>
+        <v>537</v>
       </c>
       <c r="C110" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B111">
-        <v>660</v>
+        <v>543</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
       </c>
       <c r="E111">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B112">
-        <v>670</v>
+        <v>547</v>
       </c>
       <c r="C112" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
       </c>
       <c r="E112">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="B113">
-        <v>683</v>
+        <v>547</v>
       </c>
       <c r="C113" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
       </c>
       <c r="E113">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B114">
-        <v>695</v>
+        <v>552</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B115">
-        <v>696</v>
+        <v>556</v>
       </c>
       <c r="C115" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B116">
-        <v>698</v>
+        <v>556</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B117">
-        <v>706</v>
+        <v>564</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B118">
-        <v>707</v>
+        <v>569</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B119">
-        <v>721</v>
+        <v>576</v>
       </c>
       <c r="C119" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
       </c>
       <c r="E119">
-        <v>3000.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B120">
-        <v>727</v>
+        <v>576</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
       <c r="E120">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B121">
-        <v>728</v>
+        <v>578</v>
       </c>
       <c r="C121" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
       </c>
       <c r="E121">
-        <v>3000.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B122">
-        <v>728</v>
+        <v>603</v>
       </c>
       <c r="C122" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
       </c>
       <c r="E122">
-        <v>3000.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B123">
-        <v>732</v>
+        <v>604</v>
       </c>
       <c r="C123" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
       </c>
       <c r="E123">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B124">
-        <v>739</v>
+        <v>618</v>
       </c>
       <c r="C124" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
       </c>
       <c r="E124">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B125">
-        <v>749</v>
+        <v>625</v>
       </c>
       <c r="C125" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
       </c>
       <c r="E125">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B126">
-        <v>750</v>
+        <v>632</v>
       </c>
       <c r="C126" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
       </c>
       <c r="E126">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="B127">
-        <v>753</v>
+        <v>632</v>
       </c>
       <c r="C127" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
       </c>
       <c r="E127">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="B128">
-        <v>754</v>
+        <v>632</v>
       </c>
       <c r="C128" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
       </c>
       <c r="E128">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="B129">
-        <v>755</v>
+        <v>646</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
       </c>
       <c r="E129">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B130">
-        <v>756</v>
+        <v>702</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
       </c>
       <c r="E130">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B131">
-        <v>757</v>
+        <v>703</v>
       </c>
       <c r="C131" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
       </c>
       <c r="E131">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B132">
-        <v>761</v>
+        <v>704</v>
       </c>
       <c r="C132" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
       </c>
       <c r="E132">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="B133">
-        <v>762</v>
+        <v>704</v>
       </c>
       <c r="C133" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
       </c>
       <c r="E133">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B134">
-        <v>764</v>
+        <v>704</v>
       </c>
       <c r="C134" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
       </c>
       <c r="E134">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="B135">
-        <v>765</v>
+        <v>705</v>
       </c>
       <c r="C135" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
       </c>
       <c r="E135">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="B136">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="C136" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="B137">
-        <v>767</v>
+        <v>707</v>
       </c>
       <c r="C137" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
       </c>
       <c r="E137">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="B138">
-        <v>768</v>
+        <v>708</v>
       </c>
       <c r="C138" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="B139">
-        <v>769</v>
+        <v>708</v>
       </c>
       <c r="C139" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
       </c>
       <c r="E139">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="B140">
-        <v>770</v>
+        <v>710</v>
       </c>
       <c r="C140" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
       </c>
       <c r="E140">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B141">
-        <v>771</v>
+        <v>711</v>
       </c>
       <c r="C141" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="B142">
-        <v>777</v>
+        <v>711</v>
       </c>
       <c r="C142" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
       </c>
       <c r="E142">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B143">
-        <v>778</v>
+        <v>713</v>
       </c>
       <c r="C143" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
       </c>
       <c r="E143">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B144">
-        <v>779</v>
+        <v>714</v>
       </c>
       <c r="C144" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
       </c>
       <c r="E144">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B145">
-        <v>780</v>
+        <v>714</v>
       </c>
       <c r="C145" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="B146">
-        <v>782</v>
+        <v>714</v>
       </c>
       <c r="C146" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
       </c>
       <c r="E146">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="B147">
-        <v>783</v>
+        <v>714</v>
       </c>
       <c r="C147" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
       </c>
       <c r="E147">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="B148">
-        <v>789</v>
+        <v>715</v>
       </c>
       <c r="C148" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B149">
-        <v>792</v>
+        <v>715</v>
       </c>
       <c r="C149" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
       </c>
       <c r="E149">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c r="B150">
-        <v>793</v>
+        <v>717</v>
       </c>
       <c r="C150" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
       <c r="E150">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="B151">
-        <v>793</v>
+        <v>718</v>
       </c>
       <c r="C151" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="B152">
-        <v>797</v>
+        <v>719</v>
       </c>
       <c r="C152" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
       </c>
       <c r="E152">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B153">
-        <v>805</v>
+        <v>719</v>
       </c>
       <c r="C153" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
       </c>
       <c r="E153">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="B154">
-        <v>813</v>
+        <v>721</v>
       </c>
       <c r="C154" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
       </c>
       <c r="E154">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="B155">
-        <v>814</v>
+        <v>721</v>
       </c>
       <c r="C155" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
       </c>
       <c r="E155">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="B156">
-        <v>830</v>
+        <v>722</v>
       </c>
       <c r="C156" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
       </c>
       <c r="E156">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="B157">
-        <v>837</v>
+        <v>722</v>
       </c>
       <c r="C157" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
       </c>
       <c r="E157">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="B158">
-        <v>850</v>
+        <v>723</v>
       </c>
       <c r="C158" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
       </c>
       <c r="E158">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="B159">
-        <v>886</v>
+        <v>724</v>
       </c>
       <c r="C159" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
       </c>
       <c r="E159">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="B160">
-        <v>887</v>
+        <v>724</v>
       </c>
       <c r="C160" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
       </c>
       <c r="E160">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="B161">
-        <v>895</v>
+        <v>726</v>
       </c>
       <c r="C161" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
       <c r="E161">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="B162">
-        <v>898</v>
+        <v>727</v>
       </c>
       <c r="C162" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
       <c r="E162">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="B163">
-        <v>903</v>
+        <v>727</v>
       </c>
       <c r="C163" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
       </c>
       <c r="E163">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B164">
-        <v>906</v>
+        <v>728</v>
       </c>
       <c r="C164" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
       </c>
       <c r="E164">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="B165">
-        <v>910</v>
+        <v>731</v>
       </c>
       <c r="C165" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
       </c>
       <c r="E165">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="B166">
-        <v>917</v>
+        <v>775</v>
       </c>
       <c r="C166" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
       </c>
       <c r="E166">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="B167">
-        <v>921</v>
+        <v>777</v>
       </c>
       <c r="C167" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
       </c>
       <c r="E167">
-        <v>3250.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B168">
-        <v>923</v>
+        <v>778</v>
       </c>
       <c r="C168" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
       </c>
       <c r="E168">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="B169">
-        <v>925</v>
+        <v>779</v>
       </c>
       <c r="C169" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
       </c>
       <c r="E169">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="B170">
-        <v>926</v>
+        <v>780</v>
       </c>
       <c r="C170" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
       </c>
       <c r="E170">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="B171">
-        <v>930</v>
+        <v>781</v>
       </c>
       <c r="C171" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
       </c>
       <c r="E171">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="B172">
-        <v>932</v>
+        <v>782</v>
       </c>
       <c r="C172" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
       </c>
       <c r="E172">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="B173">
-        <v>1018</v>
+        <v>782</v>
       </c>
       <c r="C173" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
       </c>
       <c r="E173">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="B174">
-        <v>1023</v>
+        <v>783</v>
       </c>
       <c r="C174" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
       </c>
       <c r="E174">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="B175">
-        <v>1026</v>
+        <v>783</v>
       </c>
       <c r="C175" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
       <c r="E175">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="B176">
-        <v>1027</v>
+        <v>784</v>
       </c>
       <c r="C176" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
       </c>
       <c r="E176">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="B177">
-        <v>1029</v>
+        <v>787</v>
       </c>
       <c r="C177" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
       </c>
       <c r="E177">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="B178">
-        <v>1032</v>
+        <v>789</v>
       </c>
       <c r="C178" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
       </c>
       <c r="E178">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="B179">
-        <v>1033</v>
+        <v>790</v>
       </c>
       <c r="C179" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
       </c>
       <c r="E179">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="B180">
-        <v>1052</v>
+        <v>794</v>
       </c>
       <c r="C180" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
       </c>
       <c r="E180">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="B181">
-        <v>1054</v>
+        <v>798</v>
       </c>
       <c r="C181" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
       </c>
       <c r="E181">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B182">
-        <v>1056</v>
+        <v>799</v>
       </c>
       <c r="C182" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
       </c>
       <c r="E182">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="B183">
-        <v>1057</v>
+        <v>799</v>
       </c>
       <c r="C183" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
       </c>
       <c r="E183">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="B184">
-        <v>1059</v>
+        <v>802</v>
       </c>
       <c r="C184" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
       </c>
       <c r="E184">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="B185">
-        <v>1060</v>
+        <v>802</v>
       </c>
       <c r="C185" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
       </c>
       <c r="E185">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="B186">
-        <v>1061</v>
+        <v>812</v>
       </c>
       <c r="C186" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
       </c>
       <c r="E186">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B187">
-        <v>1062</v>
+        <v>819</v>
       </c>
       <c r="C187" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
       </c>
       <c r="E187">
-        <v>3750.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="B188">
-        <v>1064</v>
+        <v>821</v>
       </c>
       <c r="C188" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
       <c r="E188">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="B189">
-        <v>1065</v>
+        <v>826</v>
       </c>
       <c r="C189" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
       </c>
       <c r="E189">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="B190">
-        <v>1066</v>
+        <v>826</v>
       </c>
       <c r="C190" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
       </c>
       <c r="E190">
-        <v>3750.0</v>
+        <v>1625.0</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="B191">
-        <v>1067</v>
+        <v>827</v>
       </c>
       <c r="C191" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
       </c>
       <c r="E191">
-        <v>3250.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="B192">
-        <v>1069</v>
+        <v>828</v>
       </c>
       <c r="C192" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
       </c>
       <c r="E192">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="B193">
-        <v>1073</v>
+        <v>828</v>
       </c>
       <c r="C193" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
       </c>
       <c r="E193">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="B194">
-        <v>1075</v>
+        <v>828</v>
       </c>
       <c r="C194" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
       </c>
       <c r="E194">
-        <v>3750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
+        <v>332</v>
+      </c>
+      <c r="B195">
+        <v>829</v>
+      </c>
+      <c r="C195" t="s">
+        <v>333</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>334</v>
+      </c>
+      <c r="B196">
+        <v>835</v>
+      </c>
+      <c r="C196" t="s">
+        <v>335</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196">
+        <v>1625.0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>336</v>
+      </c>
+      <c r="B197">
+        <v>838</v>
+      </c>
+      <c r="C197" t="s">
+        <v>337</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197">
+        <v>1625.0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>338</v>
+      </c>
+      <c r="B198">
+        <v>844</v>
+      </c>
+      <c r="C198" t="s">
+        <v>339</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>340</v>
+      </c>
+      <c r="B199">
+        <v>845</v>
+      </c>
+      <c r="C199" t="s">
+        <v>341</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>342</v>
+      </c>
+      <c r="B200">
+        <v>848</v>
+      </c>
+      <c r="C200" t="s">
+        <v>343</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>344</v>
+      </c>
+      <c r="B201">
+        <v>852</v>
+      </c>
+      <c r="C201" t="s">
+        <v>345</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201">
+        <v>1625.0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>344</v>
+      </c>
+      <c r="B202">
+        <v>852</v>
+      </c>
+      <c r="C202" t="s">
+        <v>346</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202">
+        <v>1625.0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>347</v>
+      </c>
+      <c r="B203">
+        <v>886</v>
+      </c>
+      <c r="C203" t="s">
+        <v>348</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203">
+        <v>1625.0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>349</v>
+      </c>
+      <c r="B204">
+        <v>888</v>
+      </c>
+      <c r="C204" t="s">
+        <v>350</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>351</v>
+      </c>
+      <c r="B205">
+        <v>890</v>
+      </c>
+      <c r="C205" t="s">
+        <v>352</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>353</v>
+      </c>
+      <c r="B206">
+        <v>892</v>
+      </c>
+      <c r="C206" t="s">
+        <v>354</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>355</v>
+      </c>
+      <c r="B207">
+        <v>893</v>
+      </c>
+      <c r="C207" t="s">
+        <v>356</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>357</v>
+      </c>
+      <c r="B208">
+        <v>897</v>
+      </c>
+      <c r="C208" t="s">
+        <v>358</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>359</v>
+      </c>
+      <c r="B209">
+        <v>899</v>
+      </c>
+      <c r="C209" t="s">
+        <v>360</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>361</v>
+      </c>
+      <c r="B210">
+        <v>900</v>
+      </c>
+      <c r="C210" t="s">
+        <v>362</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>363</v>
+      </c>
+      <c r="B211">
+        <v>901</v>
+      </c>
+      <c r="C211" t="s">
+        <v>364</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>365</v>
+      </c>
+      <c r="B212">
+        <v>909</v>
+      </c>
+      <c r="C212" t="s">
+        <v>366</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212">
+        <v>1625.0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>367</v>
+      </c>
+      <c r="B213">
+        <v>911</v>
+      </c>
+      <c r="C213" t="s">
+        <v>368</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>369</v>
+      </c>
+      <c r="B214">
+        <v>915</v>
+      </c>
+      <c r="C214" t="s">
+        <v>370</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214">
+        <v>1625.0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>340</v>
+      </c>
+      <c r="B215">
+        <v>919</v>
+      </c>
+      <c r="C215" t="s">
+        <v>371</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>372</v>
+      </c>
+      <c r="B216">
+        <v>921</v>
+      </c>
+      <c r="C216" t="s">
+        <v>373</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>372</v>
+      </c>
+      <c r="B217">
+        <v>921</v>
+      </c>
+      <c r="C217" t="s">
         <v>374</v>
       </c>
-      <c r="B195">
-        <v>1097</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
         <v>375</v>
       </c>
-      <c r="D195" t="s">
-        <v>7</v>
-      </c>
-      <c r="E195">
-        <v>3750.0</v>
+      <c r="B218">
+        <v>928</v>
+      </c>
+      <c r="C218" t="s">
+        <v>376</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>377</v>
+      </c>
+      <c r="B219">
+        <v>929</v>
+      </c>
+      <c r="C219" t="s">
+        <v>378</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>379</v>
+      </c>
+      <c r="B220">
+        <v>931</v>
+      </c>
+      <c r="C220" t="s">
+        <v>380</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>381</v>
+      </c>
+      <c r="B221">
+        <v>934</v>
+      </c>
+      <c r="C221" t="s">
+        <v>382</v>
+      </c>
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>383</v>
+      </c>
+      <c r="B222">
+        <v>962</v>
+      </c>
+      <c r="C222" t="s">
+        <v>384</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>385</v>
+      </c>
+      <c r="B223">
+        <v>995</v>
+      </c>
+      <c r="C223" t="s">
+        <v>386</v>
+      </c>
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223">
+        <v>1875.0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>387</v>
+      </c>
+      <c r="B224">
+        <v>1067</v>
+      </c>
+      <c r="C224" t="s">
+        <v>388</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224">
+        <v>1625.0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>387</v>
+      </c>
+      <c r="B225">
+        <v>1067</v>
+      </c>
+      <c r="C225" t="s">
+        <v>389</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225">
+        <v>1625.0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>390</v>
+      </c>
+      <c r="B226">
+        <v>1074</v>
+      </c>
+      <c r="C226" t="s">
+        <v>391</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226">
+        <v>1875.0</v>
       </c>
     </row>
   </sheetData>
